--- a/biology/Zoologie/Hemibungarus_calligaster/Hemibungarus_calligaster.xlsx
+++ b/biology/Zoologie/Hemibungarus_calligaster/Hemibungarus_calligaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemibungarus calligaster, unique représentant du genre Hemibungarus, ou serpent corail des Philippines est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemibungarus calligaster, unique représentant du genre Hemibungarus, ou serpent corail des Philippines est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur Luçon, Mindoro, Cebu, Negros, Panay et Polillo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur Luçon, Mindoro, Cebu, Negros, Panay et Polillo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 septembre 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 septembre 2011) :
 Hemibungarus calligaster calligaster (Wiegmann, 1835)
 Hemibungarus calligaster gemiannulis Peters, 1872
 Hemibungarus calligaster mcclungi Taylor, 1922</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1835 "1834" : Beiträge zur Zoologie gesammelt auf einer Reise um die Erde. Siebente Abhandlung. Amphibien. Nova Acta Physico-Medica, Academiae Caesarae Leopoldino-Carolinae, Halle, vol. 17, p. 185-268 (texte intégral).
 Peters, 1862 : Übersicht einiger von dem, durch seine afrikanische Sprachforschungen, rühmlichst bekannten, Hrn. Missionär C.H. Hahn bei Neu-Barmen, im Hererolande, an der Westküste von Afrika, im 21˚ südl. Br. gesammelten Amphibien, nebst Beschreibungen der neue Arten. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1862, p. 15-26 (texte intégral).
